--- a/biology/Zoologie/Calumma_vatosoa/Calumma_vatosoa.xlsx
+++ b/biology/Zoologie/Calumma_vatosoa/Calumma_vatosoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calumma vatosoa est une espèce de sauriens de la famille des Chamaeleonidae[1]. Calumma vohibola est son synonyme[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calumma vatosoa est une espèce de sauriens de la famille des Chamaeleonidae. Calumma vohibola est son synonyme.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de Madagascar[1]. On le retrouve dans le Côte Est de Madagascar spécifiquement dans la forêt littorale ‘Vohibola’ près du village Andranokoditra (18°35’22,9’’S, 49°13’50,6’’E, 9 m d’altitude), Province de Toamasina, Région Antsinanana, Centre-Est de Madagascar[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de Madagascar. On le retrouve dans le Côte Est de Madagascar spécifiquement dans la forêt littorale ‘Vohibola’ près du village Andranokoditra (18°35’22,9’’S, 49°13’50,6’’E, 9 m d’altitude), Province de Toamasina, Région Antsinanana, Centre-Est de Madagascar. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les points suivants distinguent les mâles et femelles de l'espèce des autres espèces de Calumma nasutum [4]: 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les points suivants distinguent les mâles et femelles de l'espèce des autres espèces de Calumma nasutum : 
 appendice rostral presque absent,
 une coloration de stress caractéristique chez la femelle consistant en une coloration de fond rougeâtre foncé avec de nombreuses taches bleues claires irrégulières,
 une divergence de séquence significative dans le gène mitochondrial ND2 (distance par paire de 10,5 à 19,4 %)
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Andreone, Mattioli, Jesu &amp; Randrianirina, 2001 : Two new chameleons of the genus Calumma from north-east Madagascar, with observations on hemipenial morphology in the Calumma furcifer group (Reptilia, Squamata, Chamaeleonidae). Herpetological Journal, vol. 11, n. 2, p. 53-68.</t>
         </is>
